--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-board-review|0.1.0</t>
+    <t>http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-board-review|0.2.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-tub-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tub-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -452,7 +452,7 @@
     <t>therapeuticRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-therapeutic-recommendation|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-therapeutic-recommendation|0.2.0}
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>molecularComparison</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-molecular-comparison|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-molecular-comparison|0.2.0}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>cupCharacterization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-cup-characterization|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-cup-characterization|0.2.0}
 </t>
   </si>
   <si>
@@ -818,7 +818,7 @@
     <t>specialization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization|0.2.0}
 </t>
   </si>
   <si>
@@ -947,7 +947,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -1197,7 +1197,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
     <t>Any recommendations or follow-up actions resulting from the tumor board.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations|0.2.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Molecular Tumor Board Review</t>
+    <t>Molecular Tumor Board Review Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a specialized molecular tumor board review for a cancer patient. This profile extends the `OnconovaTumorBoardReview` profile to specify that the review is focused on molecular diagnostics and recommendations.</t>
+    <t xml:space="preserve">A profile representing a specialized molecular tumor board review for a cancer patient. This profile extends the `OnconovaTumorBoardReview` profile to specify that the review is focused on molecular diagnostics and recommendations.
+**Conformance:**
+Procedure resources representing a molecular tumor board review in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-board-review|0.2.0</t>
+    <t>http://onconova.github.io/fhir/StructureDefinition/onconova-tumor-board-review</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -426,7 +428,7 @@
 </t>
   </si>
   <si>
-    <t>CUP characterization(s)</t>
+    <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -452,11 +454,11 @@
     <t>therapeuticRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-therapeutic-recommendation|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-therapeutic-recommendation}
 </t>
   </si>
   <si>
-    <t>Molecular Tumor Board Therapeutic Recommendation</t>
+    <t>Therapeutic recommendation(s)</t>
   </si>
   <si>
     <t>A therapeutic recommendation or follow-up action resulting from a molecular tumor board review.</t>
@@ -476,11 +478,11 @@
     <t>molecularComparison</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-molecular-comparison|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-molecular-comparison}
 </t>
   </si>
   <si>
-    <t>Molecular Tumor Board Molecular Comparison</t>
+    <t>Molecular comparison(s)</t>
   </si>
   <si>
     <t>A comparison of molecular findings discussed during the molecular tumor board review.</t>
@@ -492,11 +494,11 @@
     <t>cupCharacterization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-cup-characterization|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-molecular-tumor-board-cup-characterization}
 </t>
   </si>
   <si>
-    <t>Molecular Tumor Board CUP Characterization</t>
+    <t>CUP characterization(s)</t>
   </si>
   <si>
     <t>A characterization of the tumor board review focused on cancer of unknown primary (CUP) origin.</t>
@@ -647,9 +649,6 @@
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
   </si>
   <si>
     <t>required</t>
@@ -818,7 +817,7 @@
     <t>specialization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization}
 </t>
   </si>
   <si>
@@ -838,9 +837,6 @@
   </si>
   <si>
     <t>Procedure.code.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
   </si>
   <si>
     <t>Procedure.code.extension:specialization.url</t>
@@ -947,7 +943,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -1013,6 +1009,13 @@
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1023,6 +1026,15 @@
   </si>
   <si>
     <t>OBR-7</t>
+  </si>
+  <si>
+    <t>Procedure.performed[x]:performedDateTime</t>
+  </si>
+  <si>
+    <t>performedDateTime</t>
+  </si>
+  <si>
+    <t>The date when the tumor board review was performed</t>
   </si>
   <si>
     <t>Procedure.recorder</t>
@@ -1197,11 +1209,11 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition)
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed</t>
+    <t>The condition(s) that motivated the tumor board</t>
   </si>
   <si>
     <t>The justification of why the procedure was performed.</t>
@@ -1300,7 +1312,7 @@
     <t>Any recommendations or follow-up actions resulting from the tumor board.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1741,7 +1753,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1760,7 +1772,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1775,7 +1787,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3891,28 +3903,28 @@
         <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3945,13 +3957,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -3959,14 +3971,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3985,16 +3997,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4020,14 +4032,14 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4044,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4059,10 +4071,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4073,10 +4085,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4099,13 +4111,13 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4117,29 +4129,29 @@
         <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4156,7 +4168,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4174,10 +4186,10 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>20</v>
@@ -4185,14 +4197,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4211,17 +4223,17 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4231,29 +4243,29 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="T22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4285,24 +4297,24 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4325,13 +4337,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4382,7 +4394,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4412,7 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4411,10 +4423,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4440,10 +4452,10 @@
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>159</v>
@@ -4487,7 +4499,7 @@
         <v>134</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
@@ -4496,7 +4508,7 @@
         <v>135</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4514,7 +4526,7 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4525,13 +4537,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
@@ -4553,13 +4565,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4610,7 +4622,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4639,10 +4651,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4665,13 +4677,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4722,7 +4734,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4740,7 +4752,7 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4751,10 +4763,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4780,7 +4792,7 @@
         <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>133</v>
@@ -4825,7 +4837,7 @@
         <v>134</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>20</v>
@@ -4834,7 +4846,7 @@
         <v>135</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4863,10 +4875,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4892,13 +4904,13 @@
         <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4906,7 +4918,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>20</v>
@@ -4948,7 +4960,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4977,10 +4989,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5003,13 +5015,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5021,7 +5033,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5060,7 +5072,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5089,10 +5101,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5115,19 +5127,19 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5176,7 +5188,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5194,21 +5206,21 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5231,19 +5243,19 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5292,7 +5304,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5310,25 +5322,25 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5338,7 +5350,7 @@
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5347,13 +5359,13 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5404,7 +5416,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5419,24 +5431,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5459,16 +5471,16 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5518,7 +5530,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5533,24 +5545,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5558,13 +5570,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5573,16 +5585,16 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5620,19 +5632,17 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5664,9 +5674,11 @@
         <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5687,15 +5699,17 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5744,7 +5758,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5759,24 +5773,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5799,7 +5813,7 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>186</v>
@@ -5856,7 +5870,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5899,7 +5913,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5911,7 +5925,7 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>186</v>
@@ -5974,7 +5988,7 @@
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -5983,13 +5997,13 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -5997,10 +6011,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6011,7 +6025,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6020,16 +6034,16 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6080,25 +6094,25 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6109,21 +6123,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6135,17 +6149,15 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6194,25 +6206,25 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6223,14 +6235,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6243,26 +6255,24 @@
         <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6310,7 +6320,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6328,7 +6338,7 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6339,43 +6349,45 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>338</v>
+        <v>160</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6400,13 +6412,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6424,39 +6436,39 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6464,7 +6476,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6479,17 +6491,17 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6514,13 +6526,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6538,10 +6550,10 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>86</v>
@@ -6553,24 +6565,24 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6578,7 +6590,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6590,20 +6602,20 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6652,10 +6664,10 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -6667,24 +6679,24 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6704,20 +6716,20 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6766,7 +6778,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6784,10 +6796,10 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6795,10 +6807,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6809,7 +6821,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6821,7 +6833,7 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>186</v>
@@ -6829,10 +6841,10 @@
       <c r="M45" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6856,13 +6868,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6880,13 +6892,13 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
@@ -6895,13 +6907,13 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6909,10 +6921,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6935,16 +6947,16 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6970,13 +6982,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6994,7 +7006,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7009,24 +7021,24 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7034,13 +7046,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>20</v>
@@ -7049,13 +7061,13 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>186</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>378</v>
@@ -7084,13 +7096,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7108,7 +7120,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7123,24 +7135,24 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7151,7 +7163,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7163,7 +7175,7 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>186</v>
@@ -7172,7 +7184,7 @@
         <v>186</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7198,13 +7210,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7222,13 +7234,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7240,21 +7252,21 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7265,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7274,19 +7286,19 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>186</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7312,13 +7324,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7336,13 +7348,13 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
@@ -7354,7 +7366,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7365,10 +7377,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7391,13 +7403,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>186</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>395</v>
@@ -7426,13 +7438,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7450,7 +7462,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7468,7 +7480,7 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7479,10 +7491,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7505,7 +7517,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>186</v>
@@ -7513,10 +7525,10 @@
       <c r="M51" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7540,13 +7552,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7564,7 +7576,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7582,7 +7594,7 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7591,7 +7603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>402</v>
       </c>
@@ -7610,7 +7622,7 @@
         <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
@@ -7619,16 +7631,18 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>210</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7652,11 +7666,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7692,7 +7708,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7701,12 +7717,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7720,7 +7736,7 @@
         <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
@@ -7729,13 +7745,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7762,13 +7778,11 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7786,7 +7800,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7801,24 +7815,24 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7841,13 +7855,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7898,7 +7912,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7913,24 +7927,24 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7941,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7953,13 +7967,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8010,25 +8024,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8039,21 +8053,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8065,17 +8079,15 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8124,25 +8136,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8153,14 +8165,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8173,26 +8185,24 @@
         <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O57" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8240,7 +8250,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8258,7 +8268,7 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8269,42 +8279,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8328,13 +8342,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8352,25 +8366,25 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8381,10 +8395,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8392,7 +8406,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8407,13 +8421,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>428</v>
+        <v>209</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8440,13 +8454,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8464,10 +8478,10 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8482,7 +8496,7 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8493,10 +8507,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8504,10 +8518,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8519,20 +8533,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8580,13 +8590,13 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
@@ -8598,7 +8608,7 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8609,10 +8619,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8635,18 +8645,20 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -8670,13 +8682,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>443</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -8694,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8712,17 +8724,131 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="N62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8732,7 +8858,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,7 +268,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-tub-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tub-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-tub-req-1:The subject element is required and must be provided. {subject.exists()}o-tub-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-molecular-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
